--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -25,18 +25,87 @@
     <x:t>Price</x:t>
   </x:si>
   <x:si>
+    <x:t>Audi 100 С3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110421930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 183 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110224725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 705 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi 100 С3 · Рестайлинг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/108975762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 251 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110458320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 546 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110192596</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 888 р.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Audi 100 4A, C4</x:t>
   </x:si>
   <x:si>
+    <x:t>https://cars.av.by/audi/100/107461758</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15 914 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110328324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 593 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110494519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110431449</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 729 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110440069</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 365 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110297493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 615 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110224233</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://cars.av.by/audi/100/110361014</x:t>
   </x:si>
   <x:si>
     <x:t>12 731 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>Audi 100 С3</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/109132042</x:t>
   </x:si>
   <x:si>
@@ -88,9 +157,6 @@
     <x:t>https://cars.av.by/audi/100/107047156</x:t>
   </x:si>
   <x:si>
-    <x:t>2 546 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110493953</x:t>
   </x:si>
   <x:si>
@@ -112,15 +178,9 @@
     <x:t>3 180 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>Audi 100 С3 · Рестайлинг</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110406607</x:t>
   </x:si>
   <x:si>
-    <x:t>3 183 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110483825</x:t>
   </x:si>
   <x:si>
@@ -133,9 +193,6 @@
     <x:t>https://cars.av.by/audi/100/110337930</x:t>
   </x:si>
   <x:si>
-    <x:t>5 251 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/109140848</x:t>
   </x:si>
   <x:si>
@@ -211,9 +268,6 @@
     <x:t>https://cars.av.by/audi/100/109126476</x:t>
   </x:si>
   <x:si>
-    <x:t>8 593 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110320855</x:t>
   </x:si>
   <x:si>
@@ -268,9 +322,6 @@
     <x:t>https://cars.av.by/audi/100/109003959</x:t>
   </x:si>
   <x:si>
-    <x:t>5 729 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/109658811</x:t>
   </x:si>
   <x:si>
@@ -334,12 +385,6 @@
     <x:t>3 660 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cars.av.by/audi/100/110441594</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 365 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110150197</x:t>
   </x:si>
   <x:si>
@@ -353,54 +398,6 @@
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110457659</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/108975762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109644921</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1750 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110296544</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110485107</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110256861</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110484620</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 888 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110405525</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110224725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 705 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/107287656</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110484266</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 228 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110275629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 525 р.</x:t>
   </x:si>
   <x:si>
     <x:t>BMW 5 серия E39</x:t>
@@ -790,18 +787,18 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
@@ -823,7 +820,7 @@
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>13</x:v>
@@ -834,40 +831,40 @@
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>21</x:v>
@@ -878,7 +875,7 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>23</x:v>
@@ -895,23 +892,23 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>28</x:v>
@@ -922,7 +919,7 @@
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
         <x:v>30</x:v>
@@ -933,40 +930,40 @@
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="C16" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>38</x:v>
@@ -977,7 +974,7 @@
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>40</x:v>
@@ -988,7 +985,7 @@
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
         <x:v>42</x:v>
@@ -999,7 +996,7 @@
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>44</x:v>
@@ -1016,40 +1013,40 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
@@ -1057,21 +1054,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
@@ -1079,21 +1076,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
@@ -1101,65 +1098,65 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
@@ -1167,109 +1164,109 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="C42" s="0" t="s">
-        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
@@ -1277,109 +1274,109 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C47" s="0" t="s">
         <x:v>87</x:v>
-      </x:c>
-      <x:c r="C47" s="0" t="s">
-        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C48" s="0" t="s">
         <x:v>89</x:v>
-      </x:c>
-      <x:c r="C48" s="0" t="s">
-        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C49" s="0" t="s">
         <x:v>91</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
-        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C50" s="0" t="s">
         <x:v>93</x:v>
-      </x:c>
-      <x:c r="C50" s="0" t="s">
-        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C51" s="0" t="s">
         <x:v>95</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="C55" s="0" t="s">
-        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
@@ -1387,65 +1384,65 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
       <x:c r="A59" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="C61" s="0" t="s">
         <x:v>109</x:v>
-      </x:c>
-      <x:c r="C61" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
@@ -1453,153 +1450,153 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
       <x:c r="A65" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
       <x:c r="A66" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
       <x:c r="A68" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
       <x:c r="A69" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
       <x:c r="A70" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
       <x:c r="A72" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
       <x:c r="A73" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
       <x:c r="A74" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
       <x:c r="A75" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
       <x:c r="A76" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="B76" s="0" t="s">
         <x:v>129</x:v>
       </x:c>
-      <x:c r="B76" s="0" t="s">
+      <x:c r="C76" s="0" t="s">
         <x:v>130</x:v>
-      </x:c>
-      <x:c r="C76" s="0" t="s">
-        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -25,9 +25,45 @@
     <x:t>Price</x:t>
   </x:si>
   <x:si>
+    <x:t>Audi 100 С3 · Рестайлинг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/108830172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 864 р.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Audi 100 С3</x:t>
   </x:si>
   <x:si>
+    <x:t>https://cars.av.by/audi/100/104014365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 660 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi 100 4A, C4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110257326</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 957 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110474543</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 774 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110163664</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 456 р.</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://cars.av.by/audi/100/110421930</x:t>
   </x:si>
   <x:si>
@@ -40,9 +76,6 @@
     <x:t>2 705 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>Audi 100 С3 · Рестайлинг</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/108975762</x:t>
   </x:si>
   <x:si>
@@ -61,9 +94,6 @@
     <x:t>5 888 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>Audi 100 4A, C4</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/107461758</x:t>
   </x:si>
   <x:si>
@@ -109,9 +139,6 @@
     <x:t>https://cars.av.by/audi/100/109132042</x:t>
   </x:si>
   <x:si>
-    <x:t>2 864 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110327289</x:t>
   </x:si>
   <x:si>
@@ -169,9 +196,6 @@
     <x:t>https://cars.av.by/audi/100/106400493</x:t>
   </x:si>
   <x:si>
-    <x:t>7 957 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110484156</x:t>
   </x:si>
   <x:si>
@@ -380,24 +404,6 @@
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110411403</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 660 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110150197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110257326</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/108830172</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110160417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110457659</x:t>
   </x:si>
   <x:si>
     <x:t>BMW 5 серия E39</x:t>
@@ -787,35 +793,35 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
@@ -823,15 +829,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>16</x:v>
@@ -842,7 +848,7 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>18</x:v>
@@ -853,101 +859,101 @@
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -955,15 +961,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
         <x:v>38</x:v>
@@ -974,161 +980,161 @@
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
         <x:v>46</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="s">
-        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>63</x:v>
@@ -1139,332 +1145,332 @@
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
         <x:v>82</x:v>
-      </x:c>
-      <x:c r="C44" s="0" t="s">
-        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>83</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>90</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C53" s="0" t="s">
         <x:v>97</x:v>
-      </x:c>
-      <x:c r="C53" s="0" t="s">
-        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
       <x:c r="A59" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
@@ -1472,10 +1478,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C65" s="0" t="s">
         <x:v>115</x:v>
-      </x:c>
-      <x:c r="C65" s="0" t="s">
-        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
@@ -1486,117 +1492,117 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
       <x:c r="A68" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
       <x:c r="A69" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
       <x:c r="A70" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
       <x:c r="A72" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
       <x:c r="A73" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
       <x:c r="A74" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
       <x:c r="A75" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
       <x:c r="A76" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -25,6 +25,21 @@
     <x:t>Price</x:t>
   </x:si>
   <x:si>
+    <x:t>Audi 100 С3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110494201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1432 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110463587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 819 р.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Audi 100 С3 · Рестайлинг</x:t>
   </x:si>
   <x:si>
@@ -34,9 +49,6 @@
     <x:t>2 864 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>Audi 100 С3</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/104014365</x:t>
   </x:si>
   <x:si>
@@ -301,9 +313,6 @@
     <x:t>https://cars.av.by/audi/100/110328024</x:t>
   </x:si>
   <x:si>
-    <x:t>3 819 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110274684</x:t>
   </x:si>
   <x:si>
@@ -398,12 +407,6 @@
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/103133425</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/100465784</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110411403</x:t>
   </x:si>
   <x:si>
     <x:t>BMW 5 серия E39</x:t>
@@ -793,40 +796,40 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>14</x:v>
@@ -837,7 +840,7 @@
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>16</x:v>
@@ -848,7 +851,7 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>18</x:v>
@@ -870,7 +873,7 @@
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>22</x:v>
@@ -881,7 +884,7 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>24</x:v>
@@ -892,7 +895,7 @@
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>26</x:v>
@@ -903,7 +906,7 @@
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>28</x:v>
@@ -914,40 +917,40 @@
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>35</x:v>
@@ -958,62 +961,62 @@
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>45</x:v>
@@ -1024,7 +1027,7 @@
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>47</x:v>
@@ -1035,7 +1038,7 @@
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
         <x:v>49</x:v>
@@ -1046,7 +1049,7 @@
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
         <x:v>51</x:v>
@@ -1057,7 +1060,7 @@
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
         <x:v>53</x:v>
@@ -1068,112 +1071,112 @@
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>55</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1181,15 +1184,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
         <x:v>71</x:v>
@@ -1200,7 +1203,7 @@
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>73</x:v>
@@ -1211,7 +1214,7 @@
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
         <x:v>75</x:v>
@@ -1222,7 +1225,7 @@
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>77</x:v>
@@ -1233,7 +1236,7 @@
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
         <x:v>79</x:v>
@@ -1244,7 +1247,7 @@
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
         <x:v>81</x:v>
@@ -1255,7 +1258,7 @@
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
         <x:v>83</x:v>
@@ -1266,7 +1269,7 @@
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
         <x:v>85</x:v>
@@ -1277,7 +1280,7 @@
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
         <x:v>87</x:v>
@@ -1288,62 +1291,62 @@
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
         <x:v>89</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
       <x:c r="A52" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
         <x:v>96</x:v>
@@ -1354,68 +1357,68 @@
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
         <x:v>98</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C55" s="0" t="s">
         <x:v>100</x:v>
-      </x:c>
-      <x:c r="C55" s="0" t="s">
-        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C56" s="0" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="C56" s="0" t="s">
-        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C57" s="0" t="s">
         <x:v>104</x:v>
-      </x:c>
-      <x:c r="C57" s="0" t="s">
-        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>105</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
       <x:c r="A59" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
@@ -1423,186 +1426,186 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
         <x:v>109</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
         <x:v>110</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
       <x:c r="A65" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
         <x:v>114</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
       <x:c r="A66" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C66" s="0" t="s">
         <x:v>116</x:v>
-      </x:c>
-      <x:c r="C66" s="0" t="s">
-        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C67" s="0" t="s">
         <x:v>118</x:v>
-      </x:c>
-      <x:c r="C67" s="0" t="s">
-        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
       <x:c r="A68" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C68" s="0" t="s">
         <x:v>120</x:v>
-      </x:c>
-      <x:c r="C68" s="0" t="s">
-        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
       <x:c r="A69" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C69" s="0" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="C69" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
       <x:c r="A70" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
       <x:c r="A72" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
       <x:c r="A73" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
         <x:v>127</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
       <x:c r="A74" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>128</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
       <x:c r="A75" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
       <x:c r="A76" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <x:si>
     <x:t>Name</x:t>
   </x:si>
@@ -25,24 +25,90 @@
     <x:t>Price</x:t>
   </x:si>
   <x:si>
+    <x:t>Audi 100 4A, C4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/107224767</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 731 р.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Audi 100 С3</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cars.av.by/audi/100/110494201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1432 р.</x:t>
+    <x:t>https://cars.av.by/audi/100/108718051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 546 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi 100 С3 · Рестайлинг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110256861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 729 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110353216</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 320 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/103373553</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 819 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/106277651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 024 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/108653741</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 365 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110495209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 092 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/107113112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 778 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110484620</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 888 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110150197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/109862180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11 458 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/107287656</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110463587</x:t>
   </x:si>
   <x:si>
-    <x:t>3 819 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audi 100 С3 · Рестайлинг</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/108830172</x:t>
   </x:si>
   <x:si>
@@ -55,9 +121,6 @@
     <x:t>3 660 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>Audi 100 4A, C4</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110257326</x:t>
   </x:si>
   <x:si>
@@ -97,15 +160,9 @@
     <x:t>https://cars.av.by/audi/100/110458320</x:t>
   </x:si>
   <x:si>
-    <x:t>2 546 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110192596</x:t>
   </x:si>
   <x:si>
-    <x:t>5 888 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/107461758</x:t>
   </x:si>
   <x:si>
@@ -124,30 +181,18 @@
     <x:t>https://cars.av.by/audi/100/110431449</x:t>
   </x:si>
   <x:si>
-    <x:t>5 729 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110440069</x:t>
   </x:si>
   <x:si>
-    <x:t>6 365 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110297493</x:t>
   </x:si>
   <x:si>
     <x:t>4 615 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cars.av.by/audi/100/110224233</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110361014</x:t>
   </x:si>
   <x:si>
-    <x:t>12 731 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/109132042</x:t>
   </x:si>
   <x:si>
@@ -166,9 +211,6 @@
     <x:t>https://cars.av.by/audi/100/110494130</x:t>
   </x:si>
   <x:si>
-    <x:t>5 092 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110494039</x:t>
   </x:si>
   <x:si>
@@ -217,12 +259,6 @@
     <x:t>https://cars.av.by/audi/100/110406607</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cars.av.by/audi/100/110483825</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1591 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/104790303</x:t>
   </x:si>
   <x:si>
@@ -328,9 +364,6 @@
     <x:t>https://cars.av.by/audi/100/110379670</x:t>
   </x:si>
   <x:si>
-    <x:t>11 458 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110362339</x:t>
   </x:si>
   <x:si>
@@ -349,15 +382,9 @@
     <x:t>https://cars.av.by/audi/100/110399861</x:t>
   </x:si>
   <x:si>
-    <x:t>7 320 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/109003959</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cars.av.by/audi/100/109658811</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110462931</x:t>
   </x:si>
   <x:si>
@@ -367,55 +394,13 @@
     <x:t>10 662 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cars.av.by/audi/100/106081273</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 317 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109637648</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3 024 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/107203270</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 411 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/107398240</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 138 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/106737193</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110485660</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/100498731</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110485639</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 185 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/103133425</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BMW 5 серия E39</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/bmw/5-seriya/110225729</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 141 р.</x:t>
+    <x:t>BMW 5 серия E60, E61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/bmw/5-seriya/110336919</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43 285 р.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -796,40 +781,40 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
         <x:v>14</x:v>
@@ -840,7 +825,7 @@
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>16</x:v>
@@ -851,7 +836,7 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>18</x:v>
@@ -862,7 +847,7 @@
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>20</x:v>
@@ -884,7 +869,7 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>24</x:v>
@@ -895,128 +880,128 @@
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="s">
         <x:v>13</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>45</x:v>
@@ -1027,24 +1012,24 @@
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
@@ -1052,87 +1037,87 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
@@ -1140,43 +1125,43 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
@@ -1184,65 +1169,65 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
@@ -1250,87 +1235,87 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
@@ -1338,87 +1323,87 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
       <x:c r="A55" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
       <x:c r="A59" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
@@ -1426,10 +1411,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
@@ -1437,87 +1422,87 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
       <x:c r="A65" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
       <x:c r="A66" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
       <x:c r="A68" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
@@ -1525,43 +1510,43 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
       <x:c r="A70" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
       <x:c r="A72" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
@@ -1569,43 +1554,43 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>127</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
       <x:c r="A74" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
       <x:c r="A75" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
       <x:c r="A76" s="0" t="s">
-        <x:v>131</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B76" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C76" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -25,73 +25,229 @@
     <x:t>Price</x:t>
   </x:si>
   <x:si>
+    <x:t>Audi 100 С3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110337930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 260 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/105909371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 460 р.</x:t>
+  </x:si>
+  <x:si>
     <x:t>Audi 100 4A, C4</x:t>
   </x:si>
   <x:si>
+    <x:t>https://cars.av.by/audi/100/110468132</x:t>
+  </x:si>
+  <x:si>
+    <x:t>16 100 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/109330452</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5 735 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/109644325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 385 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/109126476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8 608 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi 100 С3 · Рестайлинг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110422673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 333 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/105146528</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 332 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110406607</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 188 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110494047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 564 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/108860451</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 014 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110485107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110362339</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 883 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/109140848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 695 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110172587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 463 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/105167262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 561 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110154644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 826 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110484197</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6 217 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110373036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12 593 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/107398790</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 507 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/103635364</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 346 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/103223371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110457659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 245 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110328024</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110399861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110160417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/109508498</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 782 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/109826124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7 651 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110475622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18 491 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/106737193</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://cars.av.by/audi/100/107224767</x:t>
   </x:si>
   <x:si>
-    <x:t>12 731 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audi 100 С3</x:t>
+    <x:t>12 752 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/108718051</x:t>
   </x:si>
   <x:si>
-    <x:t>2 546 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Audi 100 С3 · Рестайлинг</x:t>
+    <x:t>2 550 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110256861</x:t>
   </x:si>
   <x:si>
-    <x:t>5 729 р.</x:t>
+    <x:t>5 739 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110353216</x:t>
   </x:si>
   <x:si>
-    <x:t>7 320 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/103373553</x:t>
   </x:si>
   <x:si>
-    <x:t>3 819 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/106277651</x:t>
   </x:si>
   <x:si>
-    <x:t>3 024 р.</x:t>
+    <x:t>3 029 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/108653741</x:t>
   </x:si>
   <x:si>
-    <x:t>6 365 р.</x:t>
+    <x:t>6 376 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110495209</x:t>
   </x:si>
   <x:si>
-    <x:t>5 092 р.</x:t>
+    <x:t>5 101 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/107113112</x:t>
   </x:si>
   <x:si>
-    <x:t>18 778 р.</x:t>
+    <x:t>18 810 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110484620</x:t>
   </x:si>
   <x:si>
-    <x:t>5 888 р.</x:t>
+    <x:t>5 898 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110150197</x:t>
@@ -100,63 +256,57 @@
     <x:t>https://cars.av.by/audi/100/109862180</x:t>
   </x:si>
   <x:si>
-    <x:t>11 458 р.</x:t>
+    <x:t>11 477 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/107287656</x:t>
   </x:si>
   <x:si>
+    <x:t>https://cars.av.by/audi/100/110494201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1435 р.</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://cars.av.by/audi/100/110463587</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/108830172</x:t>
   </x:si>
   <x:si>
-    <x:t>2 864 р.</x:t>
+    <x:t>2 869 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/104014365</x:t>
   </x:si>
   <x:si>
-    <x:t>3 660 р.</x:t>
+    <x:t>3 666 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110257326</x:t>
   </x:si>
   <x:si>
-    <x:t>7 957 р.</x:t>
+    <x:t>7 970 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110474543</x:t>
   </x:si>
   <x:si>
-    <x:t>4 774 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110163664</x:t>
   </x:si>
   <x:si>
-    <x:t>4 456 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110421930</x:t>
   </x:si>
   <x:si>
-    <x:t>3 183 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110224725</x:t>
   </x:si>
   <x:si>
-    <x:t>2 705 р.</x:t>
+    <x:t>2 710 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/108975762</x:t>
   </x:si>
   <x:si>
-    <x:t>5 251 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110458320</x:t>
   </x:si>
   <x:si>
@@ -166,15 +316,12 @@
     <x:t>https://cars.av.by/audi/100/107461758</x:t>
   </x:si>
   <x:si>
-    <x:t>15 914 р.</x:t>
+    <x:t>15 941 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110328324</x:t>
   </x:si>
   <x:si>
-    <x:t>8 593 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110494519</x:t>
   </x:si>
   <x:si>
@@ -187,7 +334,7 @@
     <x:t>https://cars.av.by/audi/100/110297493</x:t>
   </x:si>
   <x:si>
-    <x:t>4 615 р.</x:t>
+    <x:t>4 623 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110361014</x:t>
@@ -199,13 +346,13 @@
     <x:t>https://cars.av.by/audi/100/110327289</x:t>
   </x:si>
   <x:si>
-    <x:t>11 139 р.</x:t>
+    <x:t>11 158 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/109639766</x:t>
   </x:si>
   <x:si>
-    <x:t>8 275 р.</x:t>
+    <x:t>8 289 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/110494130</x:t>
@@ -214,37 +361,19 @@
     <x:t>https://cars.av.by/audi/100/110494039</x:t>
   </x:si>
   <x:si>
-    <x:t>7 002 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110353273</x:t>
   </x:si>
   <x:si>
-    <x:t>6 047 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/105909371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 453 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110494047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 548 р.</x:t>
+    <x:t>6 057 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/107047156</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cars.av.by/audi/100/110493953</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/109184452</x:t>
   </x:si>
   <x:si>
-    <x:t>1910 р.</x:t>
+    <x:t>1913 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/106400493</x:t>
@@ -253,145 +382,16 @@
     <x:t>https://cars.av.by/audi/100/110484156</x:t>
   </x:si>
   <x:si>
-    <x:t>3 180 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110406607</x:t>
+    <x:t>3 185 р.</x:t>
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/104790303</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cars.av.by/audi/100/110337930</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109140848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 684 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110373036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 572 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109644325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8 371 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110475750</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 230 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/105146528</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18 301 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110484197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6 206 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110449516</x:t>
   </x:si>
   <x:si>
-    <x:t>13 686 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110458624</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14 322 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109644691</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12 413 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110468132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16 073 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109330452</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5 726 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110192601</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110275197</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109126476</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110320855</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15 436 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110328024</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110274684</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11 935 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109826124</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7 638 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110379670</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110362339</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9 866 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/103635364</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109638104</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110432445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110399861</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/109003959</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110462931</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110183132</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10 662 р.</x:t>
+    <x:t>13 709 р.</x:t>
   </x:si>
   <x:si>
     <x:t>BMW 5 серия E60, E61</x:t>
@@ -781,62 +781,62 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
         <x:v>12</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
         <x:v>18</x:v>
@@ -847,7 +847,7 @@
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
         <x:v>20</x:v>
@@ -858,7 +858,7 @@
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
         <x:v>22</x:v>
@@ -869,7 +869,7 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>24</x:v>
@@ -880,68 +880,68 @@
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3">
@@ -949,263 +949,263 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3">
       <x:c r="A19" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3">
       <x:c r="A21" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C34" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
       <x:c r="A39" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B39" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C39" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C40" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:3">
       <x:c r="A41" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B41" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C41" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:3">
@@ -1213,109 +1213,109 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
       <x:c r="A48" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C49" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:3">
       <x:c r="A50" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B50" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
@@ -1323,10 +1323,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
@@ -1334,21 +1334,21 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
@@ -1356,10 +1356,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
@@ -1367,15 +1367,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
         <x:v>99</x:v>
@@ -1386,101 +1386,101 @@
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
         <x:v>101</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
       <x:c r="A59" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
       <x:c r="A65" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>111</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>112</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
       <x:c r="A66" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
-        <x:v>113</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C66" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:3">
@@ -1488,10 +1488,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
@@ -1499,54 +1499,54 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>117</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
       <x:c r="A69" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
       <x:c r="A70" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>120</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
       <x:c r="A72" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
@@ -1554,26 +1554,26 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C73" s="0" t="s">
         <x:v>122</x:v>
-      </x:c>
-      <x:c r="C73" s="0" t="s">
-        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
       <x:c r="A74" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
       <x:c r="A75" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
         <x:v>124</x:v>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -28,6 +28,27 @@
     <x:t>Audi 100 С3</x:t>
   </x:si>
   <x:si>
+    <x:t>https://cars.av.by/audi/100/110502436</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1594 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi 100 4A, C4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110458624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14 346 р.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cars.av.by/audi/100/110297493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4 623 р.</x:t>
+  </x:si>
+  <x:si>
     <x:t>https://cars.av.by/audi/100/110337930</x:t>
   </x:si>
   <x:si>
@@ -40,9 +61,6 @@
     <x:t>4 460 р.</x:t>
   </x:si>
   <x:si>
-    <x:t>Audi 100 4A, C4</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110468132</x:t>
   </x:si>
   <x:si>
@@ -154,12 +172,6 @@
     <x:t>https://cars.av.by/audi/100/103635364</x:t>
   </x:si>
   <x:si>
-    <x:t>14 346 р.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/103223371</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110457659</x:t>
   </x:si>
   <x:si>
@@ -331,12 +343,6 @@
     <x:t>https://cars.av.by/audi/100/110440069</x:t>
   </x:si>
   <x:si>
-    <x:t>https://cars.av.by/audi/100/110297493</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4 623 р.</x:t>
-  </x:si>
-  <x:si>
     <x:t>https://cars.av.by/audi/100/110361014</x:t>
   </x:si>
   <x:si>
@@ -386,12 +392,6 @@
   </x:si>
   <x:si>
     <x:t>https://cars.av.by/audi/100/104790303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cars.av.by/audi/100/110449516</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13 709 р.</x:t>
   </x:si>
   <x:si>
     <x:t>BMW 5 серия E60, E61</x:t>
@@ -781,18 +781,18 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>9</x:v>
@@ -803,7 +803,7 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
         <x:v>11</x:v>
@@ -825,7 +825,7 @@
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
         <x:v>15</x:v>
@@ -836,40 +836,40 @@
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
         <x:v>18</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
         <x:v>24</x:v>
@@ -880,7 +880,7 @@
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
         <x:v>26</x:v>
@@ -891,51 +891,51 @@
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
         <x:v>35</x:v>
@@ -946,7 +946,7 @@
     </x:row>
     <x:row r="18" spans="1:3">
       <x:c r="A18" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
         <x:v>37</x:v>
@@ -968,7 +968,7 @@
     </x:row>
     <x:row r="20" spans="1:3">
       <x:c r="A20" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
         <x:v>41</x:v>
@@ -990,7 +990,7 @@
     </x:row>
     <x:row r="22" spans="1:3">
       <x:c r="A22" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
         <x:v>45</x:v>
@@ -1001,84 +1001,84 @@
     </x:row>
     <x:row r="23" spans="1:3">
       <x:c r="A23" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3">
       <x:c r="A24" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:3">
       <x:c r="A25" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3">
       <x:c r="A26" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:3">
       <x:c r="A27" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:3">
       <x:c r="A28" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:3">
       <x:c r="A29" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:3">
       <x:c r="A30" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
         <x:v>57</x:v>
@@ -1089,40 +1089,40 @@
     </x:row>
     <x:row r="31" spans="1:3">
       <x:c r="A31" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
         <x:v>59</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:3">
       <x:c r="A32" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B32" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:3">
       <x:c r="A33" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B33" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C33" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:3">
       <x:c r="A34" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B34" s="0" t="s">
         <x:v>64</x:v>
@@ -1133,46 +1133,46 @@
     </x:row>
     <x:row r="35" spans="1:3">
       <x:c r="A35" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B35" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
       <x:c r="C35" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:3">
       <x:c r="A36" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B36" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C36" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:3">
       <x:c r="A37" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B37" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C37" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:3">
       <x:c r="A38" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B38" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C38" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:3">
@@ -1188,7 +1188,7 @@
     </x:row>
     <x:row r="40" spans="1:3">
       <x:c r="A40" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B40" s="0" t="s">
         <x:v>74</x:v>
@@ -1210,68 +1210,68 @@
     </x:row>
     <x:row r="42" spans="1:3">
       <x:c r="A42" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B42" s="0" t="s">
         <x:v>78</x:v>
       </x:c>
       <x:c r="C42" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:3">
       <x:c r="A43" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B43" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C43" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:3">
       <x:c r="A44" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B44" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C44" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:3">
       <x:c r="A45" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B45" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C45" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:3">
       <x:c r="A46" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B46" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C46" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:3">
       <x:c r="A47" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B47" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C47" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:3">
@@ -1279,15 +1279,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B48" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C48" s="0" t="s">
-        <x:v>88</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:3">
       <x:c r="A49" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B49" s="0" t="s">
         <x:v>89</x:v>
@@ -1304,18 +1304,18 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="C50" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:3">
       <x:c r="A51" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B51" s="0" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C51" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:3">
@@ -1323,32 +1323,32 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B52" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C52" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:3">
       <x:c r="A53" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B53" s="0" t="s">
-        <x:v>94</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C53" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:3">
       <x:c r="A54" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B54" s="0" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C54" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:3">
@@ -1356,125 +1356,125 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B55" s="0" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C55" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:3">
       <x:c r="A56" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B56" s="0" t="s">
-        <x:v>98</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C56" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:3">
       <x:c r="A57" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B57" s="0" t="s">
-        <x:v>99</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C57" s="0" t="s">
-        <x:v>100</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:3">
       <x:c r="A58" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B58" s="0" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C58" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:3">
       <x:c r="A59" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B59" s="0" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C59" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:3">
       <x:c r="A60" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B60" s="0" t="s">
-        <x:v>103</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C60" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:3">
       <x:c r="A61" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B61" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="C61" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:3">
       <x:c r="A62" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B62" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C62" s="0" t="s">
-        <x:v>106</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:3">
       <x:c r="A63" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B63" s="0" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C63" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:3">
       <x:c r="A64" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B64" s="0" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C64" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:3">
       <x:c r="A65" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B65" s="0" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C65" s="0" t="s">
-        <x:v>110</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:3">
       <x:c r="A66" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B66" s="0" t="s">
         <x:v>111</x:v>
@@ -1485,13 +1485,13 @@
     </x:row>
     <x:row r="67" spans="1:3">
       <x:c r="A67" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B67" s="0" t="s">
         <x:v>113</x:v>
       </x:c>
       <x:c r="C67" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:3">
@@ -1499,87 +1499,87 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B68" s="0" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="C68" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:3">
       <x:c r="A69" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B69" s="0" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="C69" s="0" t="s">
-        <x:v>116</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:3">
       <x:c r="A70" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B70" s="0" t="s">
         <x:v>117</x:v>
       </x:c>
       <x:c r="C70" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:3">
       <x:c r="A71" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B71" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C71" s="0" t="s">
-        <x:v>119</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:3">
       <x:c r="A72" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B72" s="0" t="s">
         <x:v>120</x:v>
       </x:c>
       <x:c r="C72" s="0" t="s">
-        <x:v>90</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:3">
       <x:c r="A73" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B73" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C73" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>94</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:3">
       <x:c r="A74" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B74" s="0" t="s">
         <x:v>123</x:v>
       </x:c>
       <x:c r="C74" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:3">
       <x:c r="A75" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B75" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C75" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:3">
